--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -82,12 +82,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -100,10 +100,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -930,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6565217391304348</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L14">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>0.9399999999999999</v>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -956,25 +956,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6521739130434783</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1086,25 +1086,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5579268292682927</v>
+        <v>0.546875</v>
       </c>
       <c r="L20">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1112,25 +1112,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.546875</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="10:17">
